--- a/data/trans_bre/P23_1_R_2016_2023-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P23_1_R_2016_2023-Dificultad-trans_bre.xlsx
@@ -592,13 +592,13 @@
         <v>-11.2990419071292</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>-14.60247417891737</v>
+        <v>-14.60247417891738</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>-0.2760278411805993</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>-0.4079066750122964</v>
+        <v>-0.4079066750122967</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-14.74485972360785</v>
+        <v>-15.23910849396125</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-20.09629021293103</v>
+        <v>-20.3924048922826</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.3481848777223275</v>
+        <v>-0.354023811183898</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.5107806157002637</v>
+        <v>-0.5171196317954896</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-6.951711930140125</v>
+        <v>-7.475103652728462</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-9.464665301578432</v>
+        <v>-9.669974378286065</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>-0.1816144717855063</v>
+        <v>-0.1902949510241037</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>-0.2928967516440588</v>
+        <v>-0.2936179124445983</v>
       </c>
     </row>
     <row r="7">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-13.37288653929192</v>
+        <v>-13.32402668816881</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-10.55615929284472</v>
+        <v>-10.8550034470492</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.376426059372273</v>
+        <v>-0.3801290542660302</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3879563744022253</v>
+        <v>-0.3950318792092801</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-5.05896259084012</v>
+        <v>-5.341009475746569</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-3.300807026864416</v>
+        <v>-3.51443320337198</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.1640101080168135</v>
+        <v>-0.1721660935607173</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.1473606652445045</v>
+        <v>-0.1539689190897883</v>
       </c>
     </row>
     <row r="10">
@@ -720,13 +720,13 @@
         <v>-5.714233899642493</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-6.793700030183328</v>
+        <v>-6.793700030183325</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>-0.2301394410965092</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>-0.3072586336129608</v>
+        <v>-0.3072586336129607</v>
       </c>
     </row>
     <row r="11">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-10.0619278957526</v>
+        <v>-9.722395335626461</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-10.11029103121032</v>
+        <v>-10.39461038892584</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.3728087737569508</v>
+        <v>-0.3617048742308029</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.4216474711985905</v>
+        <v>-0.4272341903337346</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-1.553623238268176</v>
+        <v>-1.107279212997153</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-3.142679787626898</v>
+        <v>-3.48333681799714</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>-0.06690490174844589</v>
+        <v>-0.04747345348559604</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>-0.1649103819496947</v>
+        <v>-0.1723749046353406</v>
       </c>
     </row>
     <row r="13">
@@ -784,13 +784,13 @@
         <v>-5.536567185685187</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>-1.989820570692064</v>
+        <v>-1.989820570692058</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>-0.2463156551118798</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>-0.1190808180687144</v>
+        <v>-0.1190808180687141</v>
       </c>
     </row>
     <row r="14">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-10.8159090450629</v>
+        <v>-10.62293067115534</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-5.426141930339934</v>
+        <v>-5.276225496587498</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4219677884201658</v>
+        <v>-0.4146022365077329</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2940126498082292</v>
+        <v>-0.2781193374836503</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2707237665189497</v>
+        <v>-0.5828557388258222</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.439258853419662</v>
+        <v>1.436273737197368</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.02215691567493802</v>
+        <v>-0.0208619904051125</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1032874428150724</v>
+        <v>0.09902288609627867</v>
       </c>
     </row>
     <row r="16">
@@ -848,7 +848,7 @@
         <v>-8.228944063613005</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>-6.364835983336123</v>
+        <v>-6.36483598333612</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>-0.2561013649460053</v>
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-10.35447365353951</v>
+        <v>-10.68610237357035</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-8.21777591602352</v>
+        <v>-8.205926262389937</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>-0.3135854726673766</v>
+        <v>-0.3187113997856882</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.3365992517406342</v>
+        <v>-0.3366381142513247</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-6.165100189383899</v>
+        <v>-6.150674082419524</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-4.457703978541437</v>
+        <v>-4.576246374224832</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>-0.1978037507146092</v>
+        <v>-0.1984676682160894</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>-0.2011798870804309</v>
+        <v>-0.2051399558606099</v>
       </c>
     </row>
     <row r="19">
